--- a/src/test/resources/test.xlsx
+++ b/src/test/resources/test.xlsx
@@ -361,7 +361,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -393,7 +393,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C3" s="1">
         <v>100</v>
